--- a/biology/Zoologie/Apodosauriscus/Apodosauriscus.xlsx
+++ b/biology/Zoologie/Apodosauriscus/Apodosauriscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apodosauriscus est un genre éteint de squamates de la famille des Anniellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Apodosauriscus a été créé en 1982 par le paléontologue américain Jacques Gauthier (1948-)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Apodosauriscus a été créé en 1982 par le paléontologue américain Jacques Gauthier (1948-),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux seuls fossiles de ce genre ont été trouvés aux États-Unis dans le Sud-Est du Wyoming.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† Apodosauriscus thermophilus  (Smith, 2009)
 † Apodosauriscus minutus (Gauthier, 1982)</t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Jacques A. Gauthier, « Fossil xenosaurid and anguid lizards from the early Eocene Wasatch Formation, Southeast Wyoming, and a revision of the Anguioidea », Rocky Mountain geology, Université du Wyoming, vol. 21, no 1,‎ 1er avril 1982, p. 7-54 (ISSN 1555-7332, 1555-7340, 1555-7340 et 0010-7980)</t>
         </is>
